--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dll3-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dll3-Notch4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Dll3</t>
+  </si>
+  <si>
+    <t>Notch4</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Dll3</t>
-  </si>
-  <si>
-    <t>Notch4</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4800273333333333</v>
+        <v>0.147192</v>
       </c>
       <c r="H2">
-        <v>1.440082</v>
+        <v>0.441576</v>
       </c>
       <c r="I2">
-        <v>0.3651020357716239</v>
+        <v>0.2568777879386531</v>
       </c>
       <c r="J2">
-        <v>0.373745752128283</v>
+        <v>0.2568777879386531</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.08665833333333</v>
+        <v>29.785352</v>
       </c>
       <c r="N2">
-        <v>141.259975</v>
+        <v>89.356056</v>
       </c>
       <c r="O2">
-        <v>0.8568847006715773</v>
+        <v>0.7923195065866085</v>
       </c>
       <c r="P2">
-        <v>0.8689126983340025</v>
+        <v>0.7947519366640845</v>
       </c>
       <c r="Q2">
-        <v>22.60288303532777</v>
+        <v>4.384165531584</v>
       </c>
       <c r="R2">
-        <v>203.42594731795</v>
+        <v>39.457489784256</v>
       </c>
       <c r="S2">
-        <v>0.3128503486367515</v>
+        <v>0.2035292821926131</v>
       </c>
       <c r="T2">
-        <v>0.3247524299726576</v>
+        <v>0.2041541194502306</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.4800273333333333</v>
+        <v>0.147192</v>
       </c>
       <c r="H3">
-        <v>1.440082</v>
+        <v>0.441576</v>
       </c>
       <c r="I3">
-        <v>0.3651020357716239</v>
+        <v>0.2568777879386531</v>
       </c>
       <c r="J3">
-        <v>0.373745752128283</v>
+        <v>0.2568777879386531</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>13.217391</v>
       </c>
       <c r="O3">
-        <v>0.0801768521528777</v>
+        <v>0.1171985110386058</v>
       </c>
       <c r="P3">
-        <v>0.08130228593588212</v>
+        <v>0.1175583118271966</v>
       </c>
       <c r="Q3">
-        <v>2.114902985118</v>
+        <v>0.648498072024</v>
       </c>
       <c r="R3">
-        <v>19.034126866062</v>
+        <v>5.836482648216</v>
       </c>
       <c r="S3">
-        <v>0.02927273194277616</v>
+        <v>0.03010569426530089</v>
       </c>
       <c r="T3">
-        <v>0.03038638400685499</v>
+        <v>0.03019811909597266</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.4800273333333333</v>
+        <v>0.147192</v>
       </c>
       <c r="H4">
-        <v>1.440082</v>
+        <v>0.441576</v>
       </c>
       <c r="I4">
-        <v>0.3651020357716239</v>
+        <v>0.2568777879386531</v>
       </c>
       <c r="J4">
-        <v>0.373745752128283</v>
+        <v>0.2568777879386531</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6548096666666666</v>
+        <v>1.362560333333333</v>
       </c>
       <c r="N4">
-        <v>1.964429</v>
+        <v>4.087681</v>
       </c>
       <c r="O4">
-        <v>0.01191624984823596</v>
+        <v>0.03624543805965938</v>
       </c>
       <c r="P4">
-        <v>0.01208351695570926</v>
+        <v>0.03635671197501131</v>
       </c>
       <c r="Q4">
-        <v>0.3143265381308888</v>
+        <v>0.200557980584</v>
       </c>
       <c r="R4">
-        <v>2.828938843178</v>
+        <v>1.805021825256</v>
       </c>
       <c r="S4">
-        <v>0.004350647078354255</v>
+        <v>0.009310647951632769</v>
       </c>
       <c r="T4">
-        <v>0.004516163132966418</v>
+        <v>0.009339231748863646</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.4800273333333333</v>
+        <v>0.147192</v>
       </c>
       <c r="H5">
-        <v>1.440082</v>
+        <v>0.441576</v>
       </c>
       <c r="I5">
-        <v>0.3651020357716239</v>
+        <v>0.2568777879386531</v>
       </c>
       <c r="J5">
-        <v>0.373745752128283</v>
+        <v>0.2568777879386531</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.281991</v>
+        <v>0.3451695</v>
       </c>
       <c r="N5">
-        <v>4.563982</v>
+        <v>0.690339</v>
       </c>
       <c r="O5">
-        <v>0.04152775423406879</v>
+        <v>0.00918184643004207</v>
       </c>
       <c r="P5">
-        <v>0.0280737832126037</v>
+        <v>0.006140023203404898</v>
       </c>
       <c r="Q5">
-        <v>1.095418054420667</v>
+        <v>0.05080618904400001</v>
       </c>
       <c r="R5">
-        <v>6.572508326524</v>
+        <v>0.3048371342640001</v>
       </c>
       <c r="S5">
-        <v>0.01516186761188219</v>
+        <v>0.002358612400141626</v>
       </c>
       <c r="T5">
-        <v>0.01049245722188093</v>
+        <v>0.001577235578382653</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.4800273333333333</v>
+        <v>0.147192</v>
       </c>
       <c r="H6">
-        <v>1.440082</v>
+        <v>0.441576</v>
       </c>
       <c r="I6">
-        <v>0.3651020357716239</v>
+        <v>0.2568777879386531</v>
       </c>
       <c r="J6">
-        <v>0.373745752128283</v>
+        <v>0.2568777879386531</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.521729</v>
+        <v>1.693723333333333</v>
       </c>
       <c r="N6">
-        <v>1.565187</v>
+        <v>5.08117</v>
       </c>
       <c r="O6">
-        <v>0.009494443093240277</v>
+        <v>0.04505469788508434</v>
       </c>
       <c r="P6">
-        <v>0.009627715561802291</v>
+        <v>0.04519301633030275</v>
       </c>
       <c r="Q6">
-        <v>0.2504441805926667</v>
+        <v>0.24930252488</v>
       </c>
       <c r="R6">
-        <v>2.253997625334</v>
+        <v>2.24372272392</v>
       </c>
       <c r="S6">
-        <v>0.003466440501859859</v>
+        <v>0.01157355112896478</v>
       </c>
       <c r="T6">
-        <v>0.003598317793922972</v>
+        <v>0.0116090820652036</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -853,13 +853,13 @@
         <v>0.2470926666666667</v>
       </c>
       <c r="H7">
-        <v>0.7412780000000001</v>
+        <v>0.741278</v>
       </c>
       <c r="I7">
-        <v>0.1879352056846193</v>
+        <v>0.4312232840724788</v>
       </c>
       <c r="J7">
-        <v>0.1923845334127844</v>
+        <v>0.4312232840724788</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>47.08665833333333</v>
+        <v>29.785352</v>
       </c>
       <c r="N7">
-        <v>141.259975</v>
+        <v>89.356056</v>
       </c>
       <c r="O7">
-        <v>0.8568847006715773</v>
+        <v>0.7923195065866085</v>
       </c>
       <c r="P7">
-        <v>0.8689126983340025</v>
+        <v>0.7947519366640845</v>
       </c>
       <c r="Q7">
-        <v>11.63476797200556</v>
+        <v>7.359742053285333</v>
       </c>
       <c r="R7">
-        <v>104.71291174805</v>
+        <v>66.23767847956799</v>
       </c>
       <c r="S7">
-        <v>0.1610388024687163</v>
+        <v>0.3416666196649633</v>
       </c>
       <c r="T7">
-        <v>0.1671653640454306</v>
+        <v>0.3427155401512492</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -915,13 +915,13 @@
         <v>0.2470926666666667</v>
       </c>
       <c r="H8">
-        <v>0.7412780000000001</v>
+        <v>0.741278</v>
       </c>
       <c r="I8">
-        <v>0.1879352056846193</v>
+        <v>0.4312232840724788</v>
       </c>
       <c r="J8">
-        <v>0.1923845334127844</v>
+        <v>0.4312232840724788</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>13.217391</v>
       </c>
       <c r="O8">
-        <v>0.0801768521528777</v>
+        <v>0.1171985110386058</v>
       </c>
       <c r="P8">
-        <v>0.08130228593588212</v>
+        <v>0.1175583118271966</v>
       </c>
       <c r="Q8">
         <v>1.088640129522</v>
       </c>
       <c r="R8">
-        <v>9.797761165698001</v>
+        <v>9.797761165697999</v>
       </c>
       <c r="S8">
-        <v>0.01506805320049638</v>
+        <v>0.05053872681847226</v>
       </c>
       <c r="T8">
-        <v>0.01564130234516747</v>
+        <v>0.05069388129614023</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -977,13 +977,13 @@
         <v>0.2470926666666667</v>
       </c>
       <c r="H9">
-        <v>0.7412780000000001</v>
+        <v>0.741278</v>
       </c>
       <c r="I9">
-        <v>0.1879352056846193</v>
+        <v>0.4312232840724788</v>
       </c>
       <c r="J9">
-        <v>0.1923845334127844</v>
+        <v>0.4312232840724788</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6548096666666666</v>
+        <v>1.362560333333333</v>
       </c>
       <c r="N9">
-        <v>1.964429</v>
+        <v>4.087681</v>
       </c>
       <c r="O9">
-        <v>0.01191624984823596</v>
+        <v>0.03624543805965938</v>
       </c>
       <c r="P9">
-        <v>0.01208351695570926</v>
+        <v>0.03635671197501131</v>
       </c>
       <c r="Q9">
-        <v>0.1617986666957778</v>
+        <v>0.3366786662575555</v>
       </c>
       <c r="R9">
-        <v>1.456188000262</v>
+        <v>3.030107996318</v>
       </c>
       <c r="S9">
-        <v>0.002239482866217539</v>
+        <v>0.01562987683273193</v>
       </c>
       <c r="T9">
-        <v>0.002324681771509595</v>
+        <v>0.01567786073594159</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1039,13 +1039,13 @@
         <v>0.2470926666666667</v>
       </c>
       <c r="H10">
-        <v>0.7412780000000001</v>
+        <v>0.741278</v>
       </c>
       <c r="I10">
-        <v>0.1879352056846193</v>
+        <v>0.4312232840724788</v>
       </c>
       <c r="J10">
-        <v>0.1923845334127844</v>
+        <v>0.4312232840724788</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.281991</v>
+        <v>0.3451695</v>
       </c>
       <c r="N10">
-        <v>4.563982</v>
+        <v>0.690339</v>
       </c>
       <c r="O10">
-        <v>0.04152775423406879</v>
+        <v>0.00918184643004207</v>
       </c>
       <c r="P10">
-        <v>0.0280737832126037</v>
+        <v>0.006140023203404898</v>
       </c>
       <c r="Q10">
-        <v>0.5638632414993334</v>
+        <v>0.085288852207</v>
       </c>
       <c r="R10">
-        <v>3.383179448996001</v>
+        <v>0.511733113242</v>
       </c>
       <c r="S10">
-        <v>0.007804527033600036</v>
+        <v>0.003959425971411907</v>
       </c>
       <c r="T10">
-        <v>0.005400961684488422</v>
+        <v>0.002647720970053482</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1101,13 +1101,13 @@
         <v>0.2470926666666667</v>
       </c>
       <c r="H11">
-        <v>0.7412780000000001</v>
+        <v>0.741278</v>
       </c>
       <c r="I11">
-        <v>0.1879352056846193</v>
+        <v>0.4312232840724788</v>
       </c>
       <c r="J11">
-        <v>0.1923845334127844</v>
+        <v>0.4312232840724788</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.521729</v>
+        <v>1.693723333333333</v>
       </c>
       <c r="N11">
-        <v>1.565187</v>
+        <v>5.08117</v>
       </c>
       <c r="O11">
-        <v>0.009494443093240277</v>
+        <v>0.04505469788508434</v>
       </c>
       <c r="P11">
-        <v>0.009627715561802291</v>
+        <v>0.04519301633030275</v>
       </c>
       <c r="Q11">
-        <v>0.1289154098873334</v>
+        <v>0.4185066150288889</v>
       </c>
       <c r="R11">
-        <v>1.160238688986</v>
+        <v>3.76655953526</v>
       </c>
       <c r="S11">
-        <v>0.001784340115589024</v>
+        <v>0.01942863478489943</v>
       </c>
       <c r="T11">
-        <v>0.001852223566188337</v>
+        <v>0.01948828091909431</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1238163333333333</v>
+        <v>0.1787193333333333</v>
       </c>
       <c r="H12">
-        <v>0.371449</v>
+        <v>0.536158</v>
       </c>
       <c r="I12">
-        <v>0.09417296104342247</v>
+        <v>0.311898927988868</v>
       </c>
       <c r="J12">
-        <v>0.0964024867211024</v>
+        <v>0.311898927988868</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>47.08665833333333</v>
+        <v>29.785352</v>
       </c>
       <c r="N12">
-        <v>141.259975</v>
+        <v>89.356056</v>
       </c>
       <c r="O12">
-        <v>0.8568847006715773</v>
+        <v>0.7923195065866085</v>
       </c>
       <c r="P12">
-        <v>0.8689126983340025</v>
+        <v>0.7947519366640845</v>
       </c>
       <c r="Q12">
-        <v>5.830097383752777</v>
+        <v>5.323218252538667</v>
       </c>
       <c r="R12">
-        <v>52.470876453775</v>
+        <v>47.908964272848</v>
       </c>
       <c r="S12">
-        <v>0.08069536953504917</v>
+        <v>0.247123604729032</v>
       </c>
       <c r="T12">
-        <v>0.08376534486294093</v>
+        <v>0.2478822770626047</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1238163333333333</v>
+        <v>0.1787193333333333</v>
       </c>
       <c r="H13">
-        <v>0.371449</v>
+        <v>0.536158</v>
       </c>
       <c r="I13">
-        <v>0.09417296104342247</v>
+        <v>0.311898927988868</v>
       </c>
       <c r="J13">
-        <v>0.0964024867211024</v>
+        <v>0.311898927988868</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>13.217391</v>
       </c>
       <c r="O13">
-        <v>0.0801768521528777</v>
+        <v>0.1171985110386058</v>
       </c>
       <c r="P13">
-        <v>0.08130228593588212</v>
+        <v>0.1175583118271966</v>
       </c>
       <c r="Q13">
-        <v>0.5455096299509999</v>
+        <v>0.787401102642</v>
       </c>
       <c r="R13">
-        <v>4.909586669558999</v>
+        <v>7.086609923778</v>
       </c>
       <c r="S13">
-        <v>0.007550491574377195</v>
+        <v>0.03655408995483267</v>
       </c>
       <c r="T13">
-        <v>0.007837742540329146</v>
+        <v>0.03666631143508368</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1238163333333333</v>
+        <v>0.1787193333333333</v>
       </c>
       <c r="H14">
-        <v>0.371449</v>
+        <v>0.536158</v>
       </c>
       <c r="I14">
-        <v>0.09417296104342247</v>
+        <v>0.311898927988868</v>
       </c>
       <c r="J14">
-        <v>0.0964024867211024</v>
+        <v>0.311898927988868</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6548096666666666</v>
+        <v>1.362560333333333</v>
       </c>
       <c r="N14">
-        <v>1.964429</v>
+        <v>4.087681</v>
       </c>
       <c r="O14">
-        <v>0.01191624984823596</v>
+        <v>0.03624543805965938</v>
       </c>
       <c r="P14">
-        <v>0.01208351695570926</v>
+        <v>0.03635671197501131</v>
       </c>
       <c r="Q14">
-        <v>0.08107613195788888</v>
+        <v>0.2435158743997778</v>
       </c>
       <c r="R14">
-        <v>0.729685187621</v>
+        <v>2.191642869598</v>
       </c>
       <c r="S14">
-        <v>0.001122188532741614</v>
+        <v>0.01130491327529468</v>
       </c>
       <c r="T14">
-        <v>0.001164881082866978</v>
+        <v>0.01133961949020607</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1238163333333333</v>
+        <v>0.1787193333333333</v>
       </c>
       <c r="H15">
-        <v>0.371449</v>
+        <v>0.536158</v>
       </c>
       <c r="I15">
-        <v>0.09417296104342247</v>
+        <v>0.311898927988868</v>
       </c>
       <c r="J15">
-        <v>0.0964024867211024</v>
+        <v>0.311898927988868</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.281991</v>
+        <v>0.3451695</v>
       </c>
       <c r="N15">
-        <v>4.563982</v>
+        <v>0.690339</v>
       </c>
       <c r="O15">
-        <v>0.04152775423406879</v>
+        <v>0.00918184643004207</v>
       </c>
       <c r="P15">
-        <v>0.0280737832126037</v>
+        <v>0.006140023203404898</v>
       </c>
       <c r="Q15">
-        <v>0.2825477583196667</v>
+        <v>0.061688462927</v>
       </c>
       <c r="R15">
-        <v>1.695286549918</v>
+        <v>0.370130777562</v>
       </c>
       <c r="S15">
-        <v>0.003910791581705783</v>
+        <v>0.002863808058488536</v>
       </c>
       <c r="T15">
-        <v>0.002706382513364135</v>
+        <v>0.001915066654968763</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1238163333333333</v>
+        <v>0.1787193333333333</v>
       </c>
       <c r="H16">
-        <v>0.371449</v>
+        <v>0.536158</v>
       </c>
       <c r="I16">
-        <v>0.09417296104342247</v>
+        <v>0.311898927988868</v>
       </c>
       <c r="J16">
-        <v>0.0964024867211024</v>
+        <v>0.311898927988868</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,648 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.521729</v>
+        <v>1.693723333333333</v>
       </c>
       <c r="N16">
-        <v>1.565187</v>
+        <v>5.08117</v>
       </c>
       <c r="O16">
-        <v>0.009494443093240277</v>
+        <v>0.04505469788508434</v>
       </c>
       <c r="P16">
-        <v>0.009627715561802291</v>
+        <v>0.04519301633030275</v>
       </c>
       <c r="Q16">
-        <v>0.06459857177366667</v>
+        <v>0.3027011049844445</v>
       </c>
       <c r="R16">
-        <v>0.5813871459629999</v>
+        <v>2.72430994486</v>
       </c>
       <c r="S16">
-        <v>0.0008941198195487082</v>
+        <v>0.01405251197122012</v>
       </c>
       <c r="T16">
-        <v>0.0009281357216011962</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.5</v>
-      </c>
-      <c r="G17">
-        <v>0.0912215</v>
-      </c>
-      <c r="H17">
-        <v>0.182443</v>
-      </c>
-      <c r="I17">
-        <v>0.06938178941784119</v>
-      </c>
-      <c r="J17">
-        <v>0.04734959277009249</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>47.08665833333333</v>
-      </c>
-      <c r="N17">
-        <v>141.259975</v>
-      </c>
-      <c r="O17">
-        <v>0.8568847006715773</v>
-      </c>
-      <c r="P17">
-        <v>0.8689126983340025</v>
-      </c>
-      <c r="Q17">
-        <v>4.295315603154166</v>
-      </c>
-      <c r="R17">
-        <v>25.771893618925</v>
-      </c>
-      <c r="S17">
-        <v>0.05945219385736526</v>
-      </c>
-      <c r="T17">
-        <v>0.04114266241887724</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.5</v>
-      </c>
-      <c r="G18">
-        <v>0.0912215</v>
-      </c>
-      <c r="H18">
-        <v>0.182443</v>
-      </c>
-      <c r="I18">
-        <v>0.06938178941784119</v>
-      </c>
-      <c r="J18">
-        <v>0.04734959277009249</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>4.405797</v>
-      </c>
-      <c r="N18">
-        <v>13.217391</v>
-      </c>
-      <c r="O18">
-        <v>0.0801768521528777</v>
-      </c>
-      <c r="P18">
-        <v>0.08130228593588212</v>
-      </c>
-      <c r="Q18">
-        <v>0.4019034110355</v>
-      </c>
-      <c r="R18">
-        <v>2.411420466213</v>
-      </c>
-      <c r="S18">
-        <v>0.005562813472256348</v>
-      </c>
-      <c r="T18">
-        <v>0.003849630130341637</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.5</v>
-      </c>
-      <c r="G19">
-        <v>0.0912215</v>
-      </c>
-      <c r="H19">
-        <v>0.182443</v>
-      </c>
-      <c r="I19">
-        <v>0.06938178941784119</v>
-      </c>
-      <c r="J19">
-        <v>0.04734959277009249</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.6548096666666666</v>
-      </c>
-      <c r="N19">
-        <v>1.964429</v>
-      </c>
-      <c r="O19">
-        <v>0.01191624984823596</v>
-      </c>
-      <c r="P19">
-        <v>0.01208351695570926</v>
-      </c>
-      <c r="Q19">
-        <v>0.05973272000783333</v>
-      </c>
-      <c r="R19">
-        <v>0.358396320047</v>
-      </c>
-      <c r="S19">
-        <v>0.0008267707376206896</v>
-      </c>
-      <c r="T19">
-        <v>0.0005721496070833413</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.5</v>
-      </c>
-      <c r="G20">
-        <v>0.0912215</v>
-      </c>
-      <c r="H20">
-        <v>0.182443</v>
-      </c>
-      <c r="I20">
-        <v>0.06938178941784119</v>
-      </c>
-      <c r="J20">
-        <v>0.04734959277009249</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>2.281991</v>
-      </c>
-      <c r="N20">
-        <v>4.563982</v>
-      </c>
-      <c r="O20">
-        <v>0.04152775423406879</v>
-      </c>
-      <c r="P20">
-        <v>0.0280737832126037</v>
-      </c>
-      <c r="Q20">
-        <v>0.2081666420065</v>
-      </c>
-      <c r="R20">
-        <v>0.832666568026</v>
-      </c>
-      <c r="S20">
-        <v>0.002881269899264024</v>
-      </c>
-      <c r="T20">
-        <v>0.001329282202632644</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.5</v>
-      </c>
-      <c r="G21">
-        <v>0.0912215</v>
-      </c>
-      <c r="H21">
-        <v>0.182443</v>
-      </c>
-      <c r="I21">
-        <v>0.06938178941784119</v>
-      </c>
-      <c r="J21">
-        <v>0.04734959277009249</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.521729</v>
-      </c>
-      <c r="N21">
-        <v>1.565187</v>
-      </c>
-      <c r="O21">
-        <v>0.009494443093240277</v>
-      </c>
-      <c r="P21">
-        <v>0.009627715561802291</v>
-      </c>
-      <c r="Q21">
-        <v>0.0475929019735</v>
-      </c>
-      <c r="R21">
-        <v>0.285557411841</v>
-      </c>
-      <c r="S21">
-        <v>0.0006587414513348736</v>
-      </c>
-      <c r="T21">
-        <v>0.0004558684111576207</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.3726179999999999</v>
-      </c>
-      <c r="H22">
-        <v>1.117854</v>
-      </c>
-      <c r="I22">
-        <v>0.2834080080824931</v>
-      </c>
-      <c r="J22">
-        <v>0.2901176349677377</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>47.08665833333333</v>
-      </c>
-      <c r="N22">
-        <v>141.259975</v>
-      </c>
-      <c r="O22">
-        <v>0.8568847006715773</v>
-      </c>
-      <c r="P22">
-        <v>0.8689126983340025</v>
-      </c>
-      <c r="Q22">
-        <v>17.54533645485</v>
-      </c>
-      <c r="R22">
-        <v>157.90802809365</v>
-      </c>
-      <c r="S22">
-        <v>0.2428479861736951</v>
-      </c>
-      <c r="T22">
-        <v>0.2520868970340961</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.3726179999999999</v>
-      </c>
-      <c r="H23">
-        <v>1.117854</v>
-      </c>
-      <c r="I23">
-        <v>0.2834080080824931</v>
-      </c>
-      <c r="J23">
-        <v>0.2901176349677377</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>4.405797</v>
-      </c>
-      <c r="N23">
-        <v>13.217391</v>
-      </c>
-      <c r="O23">
-        <v>0.0801768521528777</v>
-      </c>
-      <c r="P23">
-        <v>0.08130228593588212</v>
-      </c>
-      <c r="Q23">
-        <v>1.641679266546</v>
-      </c>
-      <c r="R23">
-        <v>14.775113398914</v>
-      </c>
-      <c r="S23">
-        <v>0.02272276196297162</v>
-      </c>
-      <c r="T23">
-        <v>0.02358722691318888</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.3726179999999999</v>
-      </c>
-      <c r="H24">
-        <v>1.117854</v>
-      </c>
-      <c r="I24">
-        <v>0.2834080080824931</v>
-      </c>
-      <c r="J24">
-        <v>0.2901176349677377</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.6548096666666666</v>
-      </c>
-      <c r="N24">
-        <v>1.964429</v>
-      </c>
-      <c r="O24">
-        <v>0.01191624984823596</v>
-      </c>
-      <c r="P24">
-        <v>0.01208351695570926</v>
-      </c>
-      <c r="Q24">
-        <v>0.2439938683739999</v>
-      </c>
-      <c r="R24">
-        <v>2.195944815366</v>
-      </c>
-      <c r="S24">
-        <v>0.003377160633301865</v>
-      </c>
-      <c r="T24">
-        <v>0.003505641361282928</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.3726179999999999</v>
-      </c>
-      <c r="H25">
-        <v>1.117854</v>
-      </c>
-      <c r="I25">
-        <v>0.2834080080824931</v>
-      </c>
-      <c r="J25">
-        <v>0.2901176349677377</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>2.281991</v>
-      </c>
-      <c r="N25">
-        <v>4.563982</v>
-      </c>
-      <c r="O25">
-        <v>0.04152775423406879</v>
-      </c>
-      <c r="P25">
-        <v>0.0280737832126037</v>
-      </c>
-      <c r="Q25">
-        <v>0.8503109224379999</v>
-      </c>
-      <c r="R25">
-        <v>5.101865534628</v>
-      </c>
-      <c r="S25">
-        <v>0.01176929810761675</v>
-      </c>
-      <c r="T25">
-        <v>0.008144699590237562</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.3726179999999999</v>
-      </c>
-      <c r="H26">
-        <v>1.117854</v>
-      </c>
-      <c r="I26">
-        <v>0.2834080080824931</v>
-      </c>
-      <c r="J26">
-        <v>0.2901176349677377</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.521729</v>
-      </c>
-      <c r="N26">
-        <v>1.565187</v>
-      </c>
-      <c r="O26">
-        <v>0.009494443093240277</v>
-      </c>
-      <c r="P26">
-        <v>0.009627715561802291</v>
-      </c>
-      <c r="Q26">
-        <v>0.194405616522</v>
-      </c>
-      <c r="R26">
-        <v>1.749650548698</v>
-      </c>
-      <c r="S26">
-        <v>0.002690801204907811</v>
-      </c>
-      <c r="T26">
-        <v>0.002793170068932164</v>
+        <v>0.01409565334600483</v>
       </c>
     </row>
   </sheetData>
